--- a/Workshop & Service Module/System review status - Service Module.xlsx
+++ b/Workshop & Service Module/System review status - Service Module.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NexusProduct\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NexusProduct\Documents\Workshop &amp; Service Module\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>If OWN VEHICLE selected, then system should not SAVE if we enter OTHER VEHICLE number</t>
+  </si>
+  <si>
+    <t>Service Entry photo save path</t>
+  </si>
+  <si>
+    <t>Photos to be saved in folder and URL to be kept in DB</t>
   </si>
 </sst>
 </file>
@@ -149,28 +155,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -471,7 +456,7 @@
   <dimension ref="B2:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -542,16 +527,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <f t="shared" ref="B5:B68" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="6"/>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6">
+        <v>43925</v>
+      </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
@@ -1797,13 +1790,13 @@
   </sheetData>
   <dataConsolidate/>
   <conditionalFormatting sqref="G3:G126">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"In progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Workshop & Service Module/System review status - Service Module.xlsx
+++ b/Workshop & Service Module/System review status - Service Module.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>No.</t>
   </si>
@@ -70,6 +70,24 @@
   </si>
   <si>
     <t>Photos to be saved in folder and URL to be kept in DB</t>
+  </si>
+  <si>
+    <t>Camera not showing after hosting to server and opening in client laptop</t>
+  </si>
+  <si>
+    <t>Camera not displaying</t>
+  </si>
+  <si>
+    <t>On page refresh error</t>
+  </si>
+  <si>
+    <t>Not found error showing if we refresh the page</t>
+  </si>
+  <si>
+    <t>Slow page</t>
+  </si>
+  <si>
+    <t>View Service entry page is very slow</t>
   </si>
 </sst>
 </file>
@@ -456,7 +474,7 @@
   <dimension ref="B2:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -546,38 +564,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6">
+        <v>44016</v>
+      </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="G6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6">
+        <v>44016</v>
+      </c>
       <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="6">
+        <v>44016</v>
+      </c>
       <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="3">

--- a/Workshop & Service Module/System review status - Service Module.xlsx
+++ b/Workshop & Service Module/System review status - Service Module.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\NexusProduct\Documents\Workshop &amp; Service Module\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7310"/>
   </bookViews>
@@ -463,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,7 +469,7 @@
   <dimension ref="B2:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -484,8 +479,9 @@
     <col min="3" max="3" width="37.7265625" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.90625" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.36328125" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="4"/>
+    <col min="6" max="6" width="31.36328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -523,7 +519,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="43.5" x14ac:dyDescent="0.35">
@@ -542,7 +538,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="29" x14ac:dyDescent="0.35">
@@ -561,7 +557,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="29" x14ac:dyDescent="0.35">
